--- a/Вводные данные.xlsx
+++ b/Вводные данные.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8150FE59-AED5-400A-BB91-F0F832862616}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10230" yWindow="0" windowWidth="19200" windowHeight="10785" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10230" yWindow="0" windowWidth="19200" windowHeight="10785" tabRatio="703" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Вводные данные" sheetId="7" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="147">
   <si>
     <t>Mo</t>
   </si>
@@ -399,36 +398,6 @@
     <t>11_2021</t>
   </si>
   <si>
-    <t>расчет 2 из 2</t>
-  </si>
-  <si>
-    <t>Проба</t>
-  </si>
-  <si>
-    <t>Dy, мкг/кг</t>
-  </si>
-  <si>
-    <t>U(Dy), %</t>
-  </si>
-  <si>
-    <t>Gd, мкг/кг</t>
-  </si>
-  <si>
-    <t>U(Gd), %</t>
-  </si>
-  <si>
-    <t>Расчет для Tb</t>
-  </si>
-  <si>
-    <t>Tb, мкг/кг</t>
-  </si>
-  <si>
-    <t>U(Tb), %</t>
-  </si>
-  <si>
-    <t>ВЫПОЛНЕНО</t>
-  </si>
-  <si>
     <t>импульсов в калибр. р-рах, имп</t>
   </si>
   <si>
@@ -487,12 +456,21 @@
   </si>
   <si>
     <t>- учет холостой пробы (по умолчанию не учитываем)</t>
+  </si>
+  <si>
+    <t>РАБОТАЕТ...</t>
+  </si>
+  <si>
+    <t>Расчет для Dy</t>
+  </si>
+  <si>
+    <t>расчет 1 из 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -956,7 +934,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1267,76 +1245,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -1372,9 +1287,75 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="1" xr:uid="{C48D9FE8-1928-469B-93F2-64DA2501DD6D}"/>
+    <cellStyle name="Normal" xfId="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1652,11 +1633,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22777905-E623-490B-97D1-890F07DAE5C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1667,11 +1648,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="144" t="s">
+      <c r="B3" s="162" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
       <c r="L3" s="122"/>
       <c r="M3" s="122"/>
       <c r="N3" s="122"/>
@@ -1802,11 +1783,11 @@
       <c r="D16" s="134"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="144" t="s">
+      <c r="B22" s="162" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="144"/>
-      <c r="D22" s="144"/>
+      <c r="C22" s="162"/>
+      <c r="D22" s="162"/>
     </row>
     <row r="23" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1888,7 +1869,7 @@
         <v>90</v>
       </c>
       <c r="C31" s="138">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="D31" s="139" t="s">
         <v>91</v>
@@ -1907,13 +1888,13 @@
     </row>
     <row r="33" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="140" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C33" s="141">
         <v>0</v>
       </c>
       <c r="D33" s="139" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1927,18 +1908,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:X62"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12" style="170" customWidth="1"/>
+    <col min="4" max="4" width="12" style="149" customWidth="1"/>
     <col min="5" max="5" width="12.140625" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" customWidth="1"/>
@@ -2059,7 +2040,7 @@
       <c r="C9" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="171"/>
+      <c r="D9" s="150"/>
       <c r="E9" s="103"/>
       <c r="F9" s="103"/>
       <c r="G9" s="104"/>
@@ -2228,7 +2209,7 @@
     </row>
     <row r="16" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C16" s="25"/>
-      <c r="D16" s="172"/>
+      <c r="D16" s="151"/>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
       <c r="G16" s="61"/>
@@ -2243,12 +2224,12 @@
       <c r="A18" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="145" t="s">
+      <c r="C18" s="166" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="146"/>
-      <c r="E18" s="146"/>
-      <c r="F18" s="147"/>
+      <c r="D18" s="167"/>
+      <c r="E18" s="167"/>
+      <c r="F18" s="168"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C19" s="19" t="s">
@@ -2343,12 +2324,12 @@
       <c r="R25" s="8"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C26" s="145" t="s">
+      <c r="C26" s="166" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="146"/>
-      <c r="E26" s="146"/>
-      <c r="F26" s="147"/>
+      <c r="D26" s="167"/>
+      <c r="E26" s="167"/>
+      <c r="F26" s="168"/>
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
       <c r="R26" s="8"/>
@@ -2442,7 +2423,7 @@
     </row>
     <row r="33" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C33" s="25"/>
-      <c r="D33" s="173"/>
+      <c r="D33" s="152"/>
       <c r="E33" s="44"/>
       <c r="F33" s="45"/>
       <c r="K33" s="14"/>
@@ -2450,22 +2431,22 @@
       <c r="R33" s="8"/>
     </row>
     <row r="35" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C35" s="148" t="s">
+      <c r="C35" s="163" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="149"/>
-      <c r="E35" s="149"/>
-      <c r="F35" s="150"/>
-      <c r="G35" s="148" t="s">
+      <c r="D35" s="164"/>
+      <c r="E35" s="164"/>
+      <c r="F35" s="165"/>
+      <c r="G35" s="163" t="s">
         <v>60</v>
       </c>
-      <c r="H35" s="149"/>
-      <c r="I35" s="149"/>
-      <c r="J35" s="148" t="s">
+      <c r="H35" s="164"/>
+      <c r="I35" s="164"/>
+      <c r="J35" s="163" t="s">
         <v>65</v>
       </c>
-      <c r="K35" s="149"/>
-      <c r="L35" s="150"/>
+      <c r="K35" s="164"/>
+      <c r="L35" s="165"/>
     </row>
     <row r="36" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C36" s="19" t="s">
@@ -2509,7 +2490,7 @@
       <c r="E37" s="72">
         <v>13.7776</v>
       </c>
-      <c r="F37" s="180">
+      <c r="F37" s="159">
         <v>52.915300000000002</v>
       </c>
       <c r="G37" s="72">
@@ -2535,7 +2516,7 @@
       <c r="E38" s="72">
         <v>13.7776</v>
       </c>
-      <c r="F38" s="180">
+      <c r="F38" s="159">
         <v>52.915300000000002</v>
       </c>
       <c r="G38" s="72">
@@ -2561,7 +2542,7 @@
       <c r="E39" s="72">
         <v>13.7776</v>
       </c>
-      <c r="F39" s="180">
+      <c r="F39" s="159">
         <v>52.915300000000002</v>
       </c>
       <c r="G39" s="72">
@@ -2587,7 +2568,7 @@
       <c r="E40" s="72">
         <v>13.782400000000001</v>
       </c>
-      <c r="F40" s="180">
+      <c r="F40" s="159">
         <v>52.840400000000002</v>
       </c>
       <c r="G40" s="28"/>
@@ -2611,7 +2592,7 @@
     </row>
     <row r="42" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C42" s="25"/>
-      <c r="D42" s="172"/>
+      <c r="D42" s="151"/>
       <c r="E42" s="100"/>
       <c r="F42" s="46"/>
       <c r="G42" s="31"/>
@@ -2625,7 +2606,7 @@
       <c r="C44" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D44" s="143" t="s">
+      <c r="D44" s="142" t="s">
         <v>69</v>
       </c>
       <c r="E44" s="58" t="s">
@@ -2695,41 +2676,43 @@
     </row>
     <row r="51" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C51" s="25"/>
-      <c r="D51" s="174"/>
+      <c r="D51" s="153"/>
       <c r="E51" s="91"/>
       <c r="F51" s="66"/>
     </row>
     <row r="53" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C53" s="145" t="s">
-        <v>144</v>
-      </c>
-      <c r="D53" s="146"/>
-      <c r="E53" s="146"/>
-      <c r="F53" s="147"/>
+      <c r="C53" s="169" t="s">
+        <v>134</v>
+      </c>
+      <c r="D53" s="170"/>
+      <c r="E53" s="170"/>
+      <c r="F53" s="171"/>
     </row>
     <row r="54" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C54" s="61" t="s">
-        <v>146</v>
-      </c>
-      <c r="D54" s="51" t="s">
-        <v>147</v>
-      </c>
-      <c r="E54" s="51" t="s">
-        <v>148</v>
-      </c>
-      <c r="F54" s="23"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="F54" s="21" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="55" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C55" s="61">
+      <c r="C55" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D55" s="143">
         <v>10</v>
       </c>
-      <c r="D55" s="51">
+      <c r="E55" s="144">
         <v>10</v>
       </c>
-      <c r="E55" s="51">
+      <c r="F55" s="181">
         <v>10</v>
       </c>
-      <c r="F55" s="23"/>
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C56" s="19"/>
@@ -2738,47 +2721,49 @@
       <c r="F56" s="42"/>
     </row>
     <row r="57" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C57" s="166"/>
-      <c r="D57" s="167"/>
-      <c r="E57" s="167"/>
-      <c r="F57" s="168"/>
+      <c r="C57" s="145"/>
+      <c r="D57" s="146"/>
+      <c r="E57" s="146"/>
+      <c r="F57" s="147"/>
     </row>
     <row r="58" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C58" s="145" t="s">
-        <v>145</v>
-      </c>
-      <c r="D58" s="146"/>
-      <c r="E58" s="146"/>
-      <c r="F58" s="147"/>
+      <c r="C58" s="169" t="s">
+        <v>135</v>
+      </c>
+      <c r="D58" s="170"/>
+      <c r="E58" s="170"/>
+      <c r="F58" s="171"/>
     </row>
     <row r="59" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C59" s="61" t="s">
-        <v>149</v>
-      </c>
-      <c r="D59" s="51" t="s">
-        <v>150</v>
-      </c>
-      <c r="E59" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="F59" s="23"/>
+      <c r="C59" s="61"/>
+      <c r="D59" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="E59" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="F59" s="21" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="60" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C60" s="61">
+      <c r="C60" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D60" s="143">
         <v>0.5</v>
       </c>
-      <c r="D60" s="51">
+      <c r="E60" s="143">
         <v>0.5</v>
       </c>
-      <c r="E60" s="51">
+      <c r="F60" s="181">
         <v>0.5</v>
       </c>
-      <c r="F60" s="23"/>
     </row>
     <row r="61" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C61" s="25"/>
-      <c r="D61" s="169"/>
-      <c r="E61" s="169"/>
+      <c r="D61" s="148"/>
+      <c r="E61" s="148"/>
       <c r="F61" s="45"/>
     </row>
     <row r="62" spans="3:6" x14ac:dyDescent="0.25">
@@ -2789,13 +2774,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
     <mergeCell ref="C53:F53"/>
     <mergeCell ref="C58:F58"/>
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="C35:F35"/>
     <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2803,12 +2788,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9AF4FA6-A730-4D1F-B9DD-BC0B98368CAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист2"/>
   <dimension ref="B4:AW32"/>
   <sheetViews>
-    <sheetView topLeftCell="AC4" workbookViewId="0">
-      <selection activeCell="AK16" sqref="AK16"/>
+    <sheetView topLeftCell="AB4" workbookViewId="0">
+      <selection activeCell="AK17" sqref="AK17:AN17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2835,56 +2820,56 @@
       </c>
     </row>
     <row r="9" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B9" s="151" t="s">
+      <c r="B9" s="169" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="152"/>
-      <c r="D9" s="152"/>
-      <c r="E9" s="152"/>
-      <c r="F9" s="152"/>
-      <c r="G9" s="153"/>
+      <c r="C9" s="170"/>
+      <c r="D9" s="170"/>
+      <c r="E9" s="170"/>
+      <c r="F9" s="170"/>
+      <c r="G9" s="171"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="151" t="s">
+      <c r="I9" s="169" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="152"/>
-      <c r="K9" s="152"/>
-      <c r="L9" s="152"/>
-      <c r="M9" s="152"/>
-      <c r="N9" s="153"/>
-      <c r="P9" s="151" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q9" s="152"/>
-      <c r="R9" s="152"/>
-      <c r="S9" s="152"/>
-      <c r="T9" s="152"/>
-      <c r="U9" s="153"/>
+      <c r="J9" s="170"/>
+      <c r="K9" s="170"/>
+      <c r="L9" s="170"/>
+      <c r="M9" s="170"/>
+      <c r="N9" s="171"/>
+      <c r="P9" s="169" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q9" s="170"/>
+      <c r="R9" s="170"/>
+      <c r="S9" s="170"/>
+      <c r="T9" s="170"/>
+      <c r="U9" s="171"/>
       <c r="V9" s="20"/>
-      <c r="W9" s="151" t="s">
-        <v>134</v>
-      </c>
-      <c r="X9" s="152"/>
-      <c r="Y9" s="152"/>
-      <c r="Z9" s="152"/>
-      <c r="AA9" s="152"/>
-      <c r="AB9" s="153"/>
-      <c r="AD9" s="151" t="s">
+      <c r="W9" s="169" t="s">
+        <v>124</v>
+      </c>
+      <c r="X9" s="170"/>
+      <c r="Y9" s="170"/>
+      <c r="Z9" s="170"/>
+      <c r="AA9" s="170"/>
+      <c r="AB9" s="171"/>
+      <c r="AD9" s="169" t="s">
         <v>45</v>
       </c>
-      <c r="AE9" s="152"/>
-      <c r="AF9" s="152"/>
-      <c r="AG9" s="152"/>
-      <c r="AH9" s="152"/>
-      <c r="AI9" s="153"/>
-      <c r="AK9" s="151" t="s">
-        <v>136</v>
-      </c>
-      <c r="AL9" s="152"/>
-      <c r="AM9" s="152"/>
-      <c r="AN9" s="152"/>
-      <c r="AO9" s="152"/>
-      <c r="AP9" s="153"/>
+      <c r="AE9" s="170"/>
+      <c r="AF9" s="170"/>
+      <c r="AG9" s="170"/>
+      <c r="AH9" s="170"/>
+      <c r="AI9" s="171"/>
+      <c r="AK9" s="169" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL9" s="170"/>
+      <c r="AM9" s="170"/>
+      <c r="AN9" s="170"/>
+      <c r="AO9" s="170"/>
+      <c r="AP9" s="171"/>
     </row>
     <row r="10" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B10" s="19"/>
@@ -2949,14 +2934,15 @@
       </c>
       <c r="AH10" s="20"/>
       <c r="AI10" s="21"/>
-      <c r="AK10" s="142" t="s">
-        <v>138</v>
-      </c>
-      <c r="AL10" s="20" t="s">
-        <v>139</v>
+      <c r="AK10" s="54"/>
+      <c r="AL10" s="161" t="s">
+        <v>128</v>
       </c>
       <c r="AM10" s="20" t="s">
-        <v>140</v>
+        <v>129</v>
+      </c>
+      <c r="AN10" s="20" t="s">
+        <v>130</v>
       </c>
       <c r="AO10" s="20"/>
       <c r="AP10" s="21"/>
@@ -3014,13 +3000,16 @@
       <c r="AG11" s="39"/>
       <c r="AH11" s="39"/>
       <c r="AI11" s="40"/>
-      <c r="AK11" s="165">
+      <c r="AK11" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL11" s="143">
         <v>10</v>
       </c>
-      <c r="AL11" s="164">
+      <c r="AM11" s="144">
         <v>10</v>
       </c>
-      <c r="AM11" s="164">
+      <c r="AN11" s="144">
         <v>10</v>
       </c>
       <c r="AO11" s="39"/>
@@ -3139,12 +3128,12 @@
       <c r="AG13" s="39"/>
       <c r="AH13" s="39"/>
       <c r="AI13" s="40"/>
-      <c r="AK13" s="175"/>
-      <c r="AL13" s="176"/>
-      <c r="AM13" s="177"/>
-      <c r="AN13" s="178"/>
-      <c r="AO13" s="178"/>
-      <c r="AP13" s="178"/>
+      <c r="AK13" s="154"/>
+      <c r="AL13" s="155"/>
+      <c r="AM13" s="156"/>
+      <c r="AN13" s="157"/>
+      <c r="AO13" s="157"/>
+      <c r="AP13" s="157"/>
       <c r="AQ13" s="14"/>
       <c r="AR13" s="79"/>
       <c r="AS13" s="106"/>
@@ -3272,14 +3261,14 @@
       <c r="AG15" s="39"/>
       <c r="AH15" s="39"/>
       <c r="AI15" s="40"/>
-      <c r="AK15" s="151" t="s">
-        <v>137</v>
-      </c>
-      <c r="AL15" s="152"/>
-      <c r="AM15" s="152"/>
-      <c r="AN15" s="152"/>
-      <c r="AO15" s="152"/>
-      <c r="AP15" s="153"/>
+      <c r="AK15" s="169" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL15" s="170"/>
+      <c r="AM15" s="170"/>
+      <c r="AN15" s="170"/>
+      <c r="AO15" s="170"/>
+      <c r="AP15" s="171"/>
       <c r="AQ15" s="14"/>
       <c r="AR15" s="14"/>
       <c r="AS15" s="28"/>
@@ -3341,14 +3330,15 @@
       <c r="AG16" s="39"/>
       <c r="AH16" s="39"/>
       <c r="AI16" s="40"/>
-      <c r="AK16" s="142" t="s">
-        <v>141</v>
-      </c>
-      <c r="AL16" s="20" t="s">
-        <v>142</v>
+      <c r="AK16" s="160"/>
+      <c r="AL16" s="161" t="s">
+        <v>131</v>
       </c>
       <c r="AM16" s="20" t="s">
-        <v>143</v>
+        <v>132</v>
+      </c>
+      <c r="AN16" s="20" t="s">
+        <v>133</v>
       </c>
       <c r="AO16" s="20"/>
       <c r="AP16" s="21"/>
@@ -3412,16 +3402,18 @@
       </c>
       <c r="AH17" s="41"/>
       <c r="AI17" s="42"/>
-      <c r="AK17" s="165">
+      <c r="AK17" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL17" s="143">
         <v>0.5</v>
       </c>
-      <c r="AL17" s="163">
+      <c r="AM17" s="143">
         <v>0.5</v>
       </c>
-      <c r="AM17" s="164">
+      <c r="AN17" s="144">
         <v>0.5</v>
       </c>
-      <c r="AN17" s="39"/>
       <c r="AO17" s="39"/>
       <c r="AP17" s="40"/>
       <c r="AQ17" s="14"/>
@@ -3485,7 +3477,7 @@
       <c r="AH18" s="41"/>
       <c r="AI18" s="42"/>
       <c r="AK18" s="25"/>
-      <c r="AL18" s="179"/>
+      <c r="AL18" s="158"/>
       <c r="AM18" s="31"/>
       <c r="AN18" s="43"/>
       <c r="AO18" s="43"/>
@@ -4092,7 +4084,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE6791E-0AF3-44E9-AC7B-A1C87E2C3A2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист4"/>
   <dimension ref="B1:P50"/>
   <sheetViews>
@@ -4265,16 +4257,16 @@
       <c r="L11" s="11"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="154" t="s">
+      <c r="B12" s="172" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="154"/>
-      <c r="D12" s="154"/>
-      <c r="E12" s="154"/>
-      <c r="F12" s="154"/>
-      <c r="G12" s="154"/>
-      <c r="H12" s="154"/>
-      <c r="I12" s="154"/>
+      <c r="C12" s="172"/>
+      <c r="D12" s="172"/>
+      <c r="E12" s="172"/>
+      <c r="F12" s="172"/>
+      <c r="G12" s="172"/>
+      <c r="H12" s="172"/>
+      <c r="I12" s="172"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="54" t="s">
@@ -4404,16 +4396,16 @@
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="154" t="s">
+      <c r="B23" s="172" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="154"/>
-      <c r="D23" s="154"/>
-      <c r="E23" s="154"/>
-      <c r="F23" s="154"/>
-      <c r="G23" s="154"/>
-      <c r="H23" s="154"/>
-      <c r="I23" s="154"/>
+      <c r="C23" s="172"/>
+      <c r="D23" s="172"/>
+      <c r="E23" s="172"/>
+      <c r="F23" s="172"/>
+      <c r="G23" s="172"/>
+      <c r="H23" s="172"/>
+      <c r="I23" s="172"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="54" t="s">
@@ -4544,16 +4536,16 @@
       <c r="I33" s="3"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="155" t="s">
+      <c r="B34" s="173" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="155"/>
-      <c r="D34" s="155"/>
-      <c r="E34" s="155"/>
-      <c r="F34" s="155"/>
-      <c r="G34" s="155"/>
-      <c r="H34" s="155"/>
-      <c r="I34" s="155"/>
+      <c r="C34" s="173"/>
+      <c r="D34" s="173"/>
+      <c r="E34" s="173"/>
+      <c r="F34" s="173"/>
+      <c r="G34" s="173"/>
+      <c r="H34" s="173"/>
+      <c r="I34" s="173"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="54"/>
@@ -4626,16 +4618,16 @@
       <c r="I38" s="3"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="154" t="s">
+      <c r="B40" s="172" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="154"/>
-      <c r="D40" s="154"/>
-      <c r="E40" s="154"/>
-      <c r="F40" s="154"/>
-      <c r="G40" s="154"/>
-      <c r="H40" s="154"/>
-      <c r="I40" s="154"/>
+      <c r="C40" s="172"/>
+      <c r="D40" s="172"/>
+      <c r="E40" s="172"/>
+      <c r="F40" s="172"/>
+      <c r="G40" s="172"/>
+      <c r="H40" s="172"/>
+      <c r="I40" s="172"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="16"/>
@@ -4708,16 +4700,16 @@
       <c r="J44" s="60"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="154" t="s">
+      <c r="B46" s="172" t="s">
         <v>30</v>
       </c>
-      <c r="C46" s="154"/>
-      <c r="D46" s="154"/>
-      <c r="E46" s="154"/>
-      <c r="F46" s="154"/>
-      <c r="G46" s="154"/>
-      <c r="H46" s="154"/>
-      <c r="I46" s="154"/>
+      <c r="C46" s="172"/>
+      <c r="D46" s="172"/>
+      <c r="E46" s="172"/>
+      <c r="F46" s="172"/>
+      <c r="G46" s="172"/>
+      <c r="H46" s="172"/>
+      <c r="I46" s="172"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="84"/>
@@ -4805,7 +4797,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25EB4569-CBD2-4D1F-808C-B07D558F2D9F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист5"/>
   <dimension ref="C1:L48"/>
   <sheetViews>
@@ -4827,42 +4819,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="156" t="s">
+      <c r="C1" s="174" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="156"/>
-      <c r="I1" s="156" t="s">
+      <c r="D1" s="174"/>
+      <c r="E1" s="174"/>
+      <c r="F1" s="174"/>
+      <c r="I1" s="174" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="156"/>
-      <c r="K1" s="156"/>
-      <c r="L1" s="156"/>
+      <c r="J1" s="174"/>
+      <c r="K1" s="174"/>
+      <c r="L1" s="174"/>
     </row>
     <row r="2" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="156"/>
-      <c r="L2" s="156"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="I2" s="174"/>
+      <c r="J2" s="174"/>
+      <c r="K2" s="174"/>
+      <c r="L2" s="174"/>
     </row>
     <row r="3" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C3" s="154" t="s">
+      <c r="C3" s="172" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="154"/>
-      <c r="E3" s="154"/>
-      <c r="F3" s="154"/>
-      <c r="I3" s="154" t="s">
+      <c r="D3" s="172"/>
+      <c r="E3" s="172"/>
+      <c r="F3" s="172"/>
+      <c r="I3" s="172" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="154"/>
-      <c r="K3" s="154"/>
-      <c r="L3" s="154"/>
+      <c r="J3" s="172"/>
+      <c r="K3" s="172"/>
+      <c r="L3" s="172"/>
     </row>
     <row r="4" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C4" s="69"/>
@@ -4989,18 +4981,18 @@
       <c r="E14" s="12"/>
     </row>
     <row r="15" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C15" s="154" t="s">
+      <c r="C15" s="172" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="154"/>
-      <c r="E15" s="154"/>
-      <c r="F15" s="154"/>
-      <c r="I15" s="154" t="s">
+      <c r="D15" s="172"/>
+      <c r="E15" s="172"/>
+      <c r="F15" s="172"/>
+      <c r="I15" s="172" t="s">
         <v>21</v>
       </c>
-      <c r="J15" s="154"/>
-      <c r="K15" s="154"/>
-      <c r="L15" s="154"/>
+      <c r="J15" s="172"/>
+      <c r="K15" s="172"/>
+      <c r="L15" s="172"/>
     </row>
     <row r="16" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C16" s="69"/>
@@ -5127,18 +5119,18 @@
       <c r="E26" s="12"/>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C27" s="154" t="s">
+      <c r="C27" s="172" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="154"/>
-      <c r="E27" s="154"/>
-      <c r="F27" s="154"/>
-      <c r="I27" s="154" t="s">
+      <c r="D27" s="172"/>
+      <c r="E27" s="172"/>
+      <c r="F27" s="172"/>
+      <c r="I27" s="172" t="s">
         <v>22</v>
       </c>
-      <c r="J27" s="154"/>
-      <c r="K27" s="154"/>
-      <c r="L27" s="154"/>
+      <c r="J27" s="172"/>
+      <c r="K27" s="172"/>
+      <c r="L27" s="172"/>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C28" s="69"/>
@@ -5255,18 +5247,18 @@
       <c r="F36" s="68"/>
     </row>
     <row r="39" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C39" s="154" t="s">
+      <c r="C39" s="172" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="154"/>
-      <c r="E39" s="154"/>
-      <c r="F39" s="154"/>
-      <c r="I39" s="154" t="s">
+      <c r="D39" s="172"/>
+      <c r="E39" s="172"/>
+      <c r="F39" s="172"/>
+      <c r="I39" s="172" t="s">
         <v>46</v>
       </c>
-      <c r="J39" s="154"/>
-      <c r="K39" s="154"/>
-      <c r="L39" s="154"/>
+      <c r="J39" s="172"/>
+      <c r="K39" s="172"/>
+      <c r="L39" s="172"/>
     </row>
     <row r="40" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C40" s="93"/>
@@ -5402,11 +5394,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D478C688-33F6-4601-B5CD-E6BB0073F444}">
-  <dimension ref="B1:K15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5416,26 +5408,26 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="160" t="s">
+      <c r="B2" s="178" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="161"/>
-      <c r="D2" s="162"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="180"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="157" t="s">
-        <v>133</v>
-      </c>
-      <c r="C3" s="158"/>
-      <c r="D3" s="159"/>
-      <c r="F3" s="155" t="s">
+      <c r="B3" s="175" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="176"/>
+      <c r="D3" s="177"/>
+      <c r="F3" s="173" t="s">
         <v>97</v>
       </c>
-      <c r="G3" s="155"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="155"/>
-      <c r="J3" s="155"/>
-      <c r="K3" s="155"/>
+      <c r="G3" s="173"/>
+      <c r="H3" s="173"/>
+      <c r="I3" s="173"/>
+      <c r="J3" s="173"/>
+      <c r="K3" s="173"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="111"/>
@@ -5444,55 +5436,26 @@
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="111" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="113" t="s">
-        <v>124</v>
-      </c>
-      <c r="H5" t="s">
-        <v>125</v>
-      </c>
-      <c r="I5" t="s">
-        <v>126</v>
-      </c>
-      <c r="J5" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="111"/>
       <c r="C6" s="14"/>
       <c r="D6" s="113"/>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>5</v>
-      </c>
-      <c r="I6" s="118">
-        <v>10.19323164720484</v>
-      </c>
-      <c r="J6" s="118">
-        <v>5.6314188418387889</v>
-      </c>
+      <c r="I6" s="118"/>
+      <c r="J6" s="118"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="111"/>
       <c r="C7" s="14"/>
       <c r="D7" s="113"/>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>11</v>
-      </c>
-      <c r="I7" s="117">
-        <v>0.78553330440498415</v>
-      </c>
-      <c r="J7" s="8">
-        <v>5.5461006464073614</v>
-      </c>
+      <c r="I7" s="117"/>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="111"/>
@@ -5505,47 +5468,14 @@
       <c r="B9" s="111"/>
       <c r="C9" s="14"/>
       <c r="D9" s="113"/>
-      <c r="H9" t="s">
-        <v>125</v>
-      </c>
-      <c r="I9" t="s">
-        <v>128</v>
-      </c>
-      <c r="J9" t="s">
-        <v>129</v>
-      </c>
     </row>
     <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="112"/>
       <c r="C10" s="114"/>
       <c r="D10" s="115"/>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>5</v>
-      </c>
-      <c r="I10">
-        <v>0.49915994994474189</v>
-      </c>
-      <c r="J10">
-        <v>6.4745747957270909</v>
-      </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E11" s="116"/>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>11</v>
-      </c>
-      <c r="I11">
-        <v>9.52960215123219</v>
-      </c>
-      <c r="J11">
-        <v>5.4028554821425194</v>
-      </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D12" s="117"/>
@@ -5554,45 +5484,10 @@
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D13" s="116"/>
       <c r="E13" s="116"/>
-      <c r="H13" t="s">
-        <v>125</v>
-      </c>
-      <c r="I13" t="s">
-        <v>131</v>
-      </c>
-      <c r="J13" t="s">
-        <v>132</v>
-      </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D14" s="116"/>
       <c r="E14" s="116"/>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>5</v>
-      </c>
-      <c r="I14">
-        <v>1.4016541404386362</v>
-      </c>
-      <c r="J14">
-        <v>5.7637625472380858</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>11</v>
-      </c>
-      <c r="I15">
-        <v>0.31955028006040731</v>
-      </c>
-      <c r="J15">
-        <v>5.9176923393460452</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Вводные данные.xlsx
+++ b/Вводные данные.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
   <bookViews>
-    <workbookView xWindow="10230" yWindow="0" windowWidth="19200" windowHeight="10785" tabRatio="703" activeTab="1"/>
+    <workbookView xWindow="10230" yWindow="0" windowWidth="19200" windowHeight="10785" tabRatio="703" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Вводные данные" sheetId="7" r:id="rId1"/>
@@ -24,13 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="147">
-  <si>
-    <t>Mo</t>
-  </si>
-  <si>
-    <t>Co</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="137">
   <si>
     <t>ГСО</t>
   </si>
@@ -38,9 +32,6 @@
     <t>импульсы</t>
   </si>
   <si>
-    <t>Ni_imp</t>
-  </si>
-  <si>
     <t>м, нав, мг</t>
   </si>
   <si>
@@ -128,9 +119,6 @@
     <t>данные по холостым пробам</t>
   </si>
   <si>
-    <t>Ni_rsd</t>
-  </si>
-  <si>
     <t>Cu_rsd</t>
   </si>
   <si>
@@ -149,18 +137,6 @@
     <t>Ti_imp</t>
   </si>
   <si>
-    <t>Nb</t>
-  </si>
-  <si>
-    <t>Nb_imp</t>
-  </si>
-  <si>
-    <t>Nb 292.781</t>
-  </si>
-  <si>
-    <t>Nb_rsd</t>
-  </si>
-  <si>
     <t>значение rsd, отн.ед.</t>
   </si>
   <si>
@@ -194,33 +170,6 @@
     <t>2 - жидкий</t>
   </si>
   <si>
-    <t>м нав, мг Nb</t>
-  </si>
-  <si>
-    <t>м проб, г Nb</t>
-  </si>
-  <si>
-    <t>м пр+р-р, г Nb</t>
-  </si>
-  <si>
-    <t>перевод в пробирки Nb</t>
-  </si>
-  <si>
-    <t>перевод в пробирки Co</t>
-  </si>
-  <si>
-    <t>м нав, мг Co</t>
-  </si>
-  <si>
-    <t>м проб, г Co</t>
-  </si>
-  <si>
-    <t>м пр+р-р, г Co</t>
-  </si>
-  <si>
-    <t>разб Co</t>
-  </si>
-  <si>
     <t>перевод в пробирки Mo</t>
   </si>
   <si>
@@ -233,27 +182,15 @@
     <t>м пр+р-р, г Mo</t>
   </si>
   <si>
-    <t>разб Nb</t>
-  </si>
-  <si>
     <t>разб Mo</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>OxPt</t>
-  </si>
-  <si>
     <t>LI-4</t>
   </si>
   <si>
-    <t>Pt_imp</t>
-  </si>
-  <si>
-    <t>Pt_rsd</t>
-  </si>
-  <si>
     <t>Заполняем для каждого элемента</t>
   </si>
   <si>
@@ -392,12 +329,6 @@
     <t>Tb_rsd</t>
   </si>
   <si>
-    <t>05_2022</t>
-  </si>
-  <si>
-    <t>11_2021</t>
-  </si>
-  <si>
     <t>импульсов в калибр. р-рах, имп</t>
   </si>
   <si>
@@ -434,37 +365,76 @@
     <t>rsd бланк</t>
   </si>
   <si>
-    <t>Nb_bl_imp</t>
-  </si>
-  <si>
-    <t>Co_bl_imp</t>
-  </si>
-  <si>
-    <t>Mo_bl_imp</t>
-  </si>
-  <si>
-    <t>Nb_bl_rsd</t>
-  </si>
-  <si>
-    <t>Co_bl_rsd</t>
-  </si>
-  <si>
-    <t>Mo_bl_rsd</t>
-  </si>
-  <si>
     <t>holost</t>
   </si>
   <si>
     <t>- учет холостой пробы (по умолчанию не учитываем)</t>
   </si>
   <si>
-    <t>РАБОТАЕТ...</t>
-  </si>
-  <si>
-    <t>Расчет для Dy</t>
-  </si>
-  <si>
-    <t>расчет 1 из 2</t>
+    <t>blank</t>
+  </si>
+  <si>
+    <t>- учет бланка (по умолчанию учитываем)</t>
+  </si>
+  <si>
+    <t>расчет 2 из 2</t>
+  </si>
+  <si>
+    <t>Проба</t>
+  </si>
+  <si>
+    <t>Dy, мкг/кг</t>
+  </si>
+  <si>
+    <t>U(Dy), %</t>
+  </si>
+  <si>
+    <t>Расчет для Gd</t>
+  </si>
+  <si>
+    <t>Gd, мкг/кг</t>
+  </si>
+  <si>
+    <t>U(Gd), %</t>
+  </si>
+  <si>
+    <t>ВЫПОЛНЕНО</t>
+  </si>
+  <si>
+    <t>Dy 292.781</t>
+  </si>
+  <si>
+    <t>перевод в пробирки Dy</t>
+  </si>
+  <si>
+    <t>м нав, мг Dy</t>
+  </si>
+  <si>
+    <t>м проб, г Dy</t>
+  </si>
+  <si>
+    <t>м пр+р-р, г Dy</t>
+  </si>
+  <si>
+    <t>разб Dy</t>
+  </si>
+  <si>
+    <t>перевод в пробирки Gd</t>
+  </si>
+  <si>
+    <t>м нав, мг Gd</t>
+  </si>
+  <si>
+    <t>м проб, г Gd</t>
+  </si>
+  <si>
+    <t>м пр+р-р, г Gd</t>
+  </si>
+  <si>
+    <t>разб Gd</t>
+  </si>
+  <si>
+    <t>OxDy</t>
   </si>
 </sst>
 </file>
@@ -934,7 +904,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1293,6 +1263,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1305,6 +1278,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1312,15 +1294,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1350,7 +1323,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1634,10 +1608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:N33"/>
+  <dimension ref="B3:N34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1648,11 +1622,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="162" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
+      <c r="B3" s="163" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
       <c r="L3" s="122"/>
       <c r="M3" s="122"/>
       <c r="N3" s="122"/>
@@ -1664,16 +1638,16 @@
     </row>
     <row r="5" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="124" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C5" s="125" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D5" s="126" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G5" s="121" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="L5" s="123"/>
       <c r="M5" s="123"/>
@@ -1681,16 +1655,16 @@
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="127" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C6" s="128">
         <v>2</v>
       </c>
       <c r="D6" s="129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" s="121" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="L6" s="123"/>
       <c r="M6" s="123"/>
@@ -1698,31 +1672,25 @@
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="130" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="C7" s="131">
         <v>2</v>
       </c>
       <c r="D7" s="132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" s="121" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="L7" s="123"/>
       <c r="M7" s="123"/>
       <c r="N7" s="123"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="130" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="131">
-        <v>2</v>
-      </c>
-      <c r="D8" s="132">
-        <v>2</v>
-      </c>
+      <c r="B8" s="130"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="132"/>
       <c r="L8" s="123"/>
       <c r="M8" s="123"/>
       <c r="N8" s="123"/>
@@ -1740,7 +1708,7 @@
       <c r="C10" s="133"/>
       <c r="D10" s="134"/>
       <c r="G10" s="121" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="L10" s="123"/>
       <c r="M10" s="123"/>
@@ -1751,7 +1719,7 @@
       <c r="C11" s="133"/>
       <c r="D11" s="134"/>
       <c r="G11" s="121" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
@@ -1759,7 +1727,7 @@
       <c r="C12" s="133"/>
       <c r="D12" s="134"/>
       <c r="G12" s="121" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
@@ -1783,118 +1751,129 @@
       <c r="D16" s="134"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="162" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="162"/>
-      <c r="D22" s="162"/>
+      <c r="B22" s="163" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="163"/>
+      <c r="D22" s="163"/>
     </row>
     <row r="23" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="135" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="C24" s="136" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="137" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="C25" s="138">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="D25" s="121" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="137" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="C26" s="138">
         <v>2E-3</v>
       </c>
       <c r="D26" s="121" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="137" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="C27" s="138">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="D27" s="121" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="137" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="C28" s="138">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D28" s="121" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="137" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C29" s="138">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="D29" s="121" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="137" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="C30" s="138">
         <v>2E-3</v>
       </c>
       <c r="D30" s="139" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="137" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="C31" s="138">
         <v>100</v>
       </c>
       <c r="D31" s="139" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="137" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="C32" s="138">
         <v>0</v>
       </c>
       <c r="D32" s="139" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="140" t="s">
-        <v>142</v>
-      </c>
-      <c r="C33" s="141">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="137" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" s="138">
         <v>0</v>
       </c>
       <c r="D33" s="139" t="s">
-        <v>143</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="140" t="s">
+        <v>115</v>
+      </c>
+      <c r="C34" s="141">
+        <v>1</v>
+      </c>
+      <c r="D34" s="139" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1912,8 +1891,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:X62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="J60" sqref="J60"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1970,7 +1949,7 @@
     </row>
     <row r="4" spans="3:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C4" s="9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N4" s="79"/>
       <c r="O4" s="79"/>
@@ -2038,7 +2017,7 @@
     </row>
     <row r="9" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C9" s="102" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D9" s="150"/>
       <c r="E9" s="103"/>
@@ -2061,17 +2040,15 @@
     </row>
     <row r="10" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C10" s="19" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10" s="51" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>0</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="F10" s="20"/>
       <c r="G10" s="61"/>
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
@@ -2092,7 +2069,7 @@
     </row>
     <row r="11" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C11" s="19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D11" s="51">
         <v>99.999899999999997</v>
@@ -2121,7 +2098,7 @@
     </row>
     <row r="12" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C12" s="19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D12" s="51">
         <v>99.999899999999997</v>
@@ -2150,7 +2127,7 @@
     </row>
     <row r="13" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C13" s="19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D13" s="51">
         <v>99.999899999999997</v>
@@ -2179,7 +2156,7 @@
     </row>
     <row r="14" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C14" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D14" s="51">
         <v>99.999899999999997</v>
@@ -2222,34 +2199,32 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="166" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="167"/>
-      <c r="E18" s="167"/>
-      <c r="F18" s="168"/>
+        <v>125</v>
+      </c>
+      <c r="C18" s="170" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="171"/>
+      <c r="E18" s="171"/>
+      <c r="F18" s="172"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C19" s="19" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D19" s="51" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="E19" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="88" t="s">
-        <v>18</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="F19" s="88"/>
       <c r="K19" s="95"/>
       <c r="L19" s="95"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C20" s="19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D20" s="73">
         <v>9087.5338138682091</v>
@@ -2264,7 +2239,7 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C21" s="19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D21" s="73">
         <v>22371.283643863298</v>
@@ -2279,7 +2254,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C22" s="19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D22" s="73">
         <v>157880.50483894299</v>
@@ -2294,7 +2269,7 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C23" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D23" s="73">
         <v>2881529.06066238</v>
@@ -2324,36 +2299,34 @@
       <c r="R25" s="8"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C26" s="166" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="167"/>
-      <c r="E26" s="167"/>
-      <c r="F26" s="168"/>
+      <c r="C26" s="170" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="171"/>
+      <c r="E26" s="171"/>
+      <c r="F26" s="172"/>
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
       <c r="R26" s="8"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C27" s="19" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D27" s="51" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="E27" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="F27" s="88" t="s">
-        <v>36</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="F27" s="88"/>
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
       <c r="R27" s="8"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C28" s="19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D28" s="72">
         <v>0.02</v>
@@ -2368,7 +2341,7 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C29" s="19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D29" s="106">
         <v>1.4999999999999999E-2</v>
@@ -2384,7 +2357,7 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C30" s="19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D30" s="106">
         <v>1.4999999999999999E-2</v>
@@ -2400,7 +2373,7 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C31" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D31" s="106">
         <v>1.4999999999999999E-2</v>
@@ -2431,58 +2404,58 @@
       <c r="R33" s="8"/>
     </row>
     <row r="35" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C35" s="163" t="s">
-        <v>59</v>
-      </c>
-      <c r="D35" s="164"/>
-      <c r="E35" s="164"/>
-      <c r="F35" s="165"/>
-      <c r="G35" s="163" t="s">
-        <v>60</v>
-      </c>
-      <c r="H35" s="164"/>
-      <c r="I35" s="164"/>
-      <c r="J35" s="163" t="s">
-        <v>65</v>
-      </c>
-      <c r="K35" s="164"/>
-      <c r="L35" s="165"/>
+      <c r="C35" s="164" t="s">
+        <v>126</v>
+      </c>
+      <c r="D35" s="165"/>
+      <c r="E35" s="165"/>
+      <c r="F35" s="166"/>
+      <c r="G35" s="164" t="s">
+        <v>131</v>
+      </c>
+      <c r="H35" s="165"/>
+      <c r="I35" s="165"/>
+      <c r="J35" s="164" t="s">
+        <v>48</v>
+      </c>
+      <c r="K35" s="165"/>
+      <c r="L35" s="166"/>
     </row>
     <row r="36" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C36" s="19" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D36" s="51" t="s">
-        <v>56</v>
+        <v>127</v>
       </c>
       <c r="E36" s="51" t="s">
-        <v>57</v>
+        <v>128</v>
       </c>
       <c r="F36" s="88" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="G36" s="51" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H36" s="51" t="s">
-        <v>62</v>
+        <v>133</v>
       </c>
       <c r="I36" s="51" t="s">
-        <v>63</v>
+        <v>134</v>
       </c>
       <c r="J36" s="107" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="K36" s="51" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="L36" s="88" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C37" s="19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D37" s="72">
         <v>1.5297000000000001</v>
@@ -2508,7 +2481,7 @@
     </row>
     <row r="38" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C38" s="19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D38" s="72">
         <v>1.5297000000000001</v>
@@ -2534,7 +2507,7 @@
     </row>
     <row r="39" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C39" s="19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D39" s="72">
         <v>1.5297000000000001</v>
@@ -2560,7 +2533,7 @@
     </row>
     <row r="40" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C40" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D40" s="72">
         <v>2.3784999999999998</v>
@@ -2604,21 +2577,21 @@
     </row>
     <row r="44" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C44" s="54" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D44" s="142" t="s">
-        <v>69</v>
+        <v>130</v>
       </c>
       <c r="E44" s="58" t="s">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c r="F44" s="59" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C45" s="19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D45" s="73">
         <v>7553.9158635753438</v>
@@ -2630,7 +2603,7 @@
     </row>
     <row r="46" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C46" s="19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D46" s="73">
         <v>751.54560642073227</v>
@@ -2642,7 +2615,7 @@
     </row>
     <row r="47" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C47" s="19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D47" s="73">
         <v>75.467770204478981</v>
@@ -2654,7 +2627,7 @@
     </row>
     <row r="48" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C48" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D48" s="73">
         <v>6.0365882917466429</v>
@@ -2681,28 +2654,26 @@
       <c r="F51" s="66"/>
     </row>
     <row r="53" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C53" s="169" t="s">
-        <v>134</v>
-      </c>
-      <c r="D53" s="170"/>
-      <c r="E53" s="170"/>
-      <c r="F53" s="171"/>
+      <c r="C53" s="167" t="s">
+        <v>111</v>
+      </c>
+      <c r="D53" s="168"/>
+      <c r="E53" s="168"/>
+      <c r="F53" s="169"/>
     </row>
     <row r="54" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C54" s="19"/>
       <c r="D54" s="20" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="E54" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="F54" s="21" t="s">
-        <v>138</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="F54" s="21"/>
     </row>
     <row r="55" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C55" s="19" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="D55" s="143">
         <v>10</v>
@@ -2710,9 +2681,7 @@
       <c r="E55" s="144">
         <v>10</v>
       </c>
-      <c r="F55" s="181">
-        <v>10</v>
-      </c>
+      <c r="F55" s="162"/>
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C56" s="19"/>
@@ -2727,28 +2696,26 @@
       <c r="F57" s="147"/>
     </row>
     <row r="58" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C58" s="169" t="s">
-        <v>135</v>
-      </c>
-      <c r="D58" s="170"/>
-      <c r="E58" s="170"/>
-      <c r="F58" s="171"/>
+      <c r="C58" s="167" t="s">
+        <v>112</v>
+      </c>
+      <c r="D58" s="168"/>
+      <c r="E58" s="168"/>
+      <c r="F58" s="169"/>
     </row>
     <row r="59" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C59" s="61"/>
       <c r="D59" s="20" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="E59" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="F59" s="21" t="s">
-        <v>141</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="F59" s="21"/>
     </row>
     <row r="60" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C60" s="19" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="D60" s="143">
         <v>0.5</v>
@@ -2756,9 +2723,7 @@
       <c r="E60" s="143">
         <v>0.5</v>
       </c>
-      <c r="F60" s="181">
-        <v>0.5</v>
-      </c>
+      <c r="F60" s="162"/>
     </row>
     <row r="61" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C61" s="25"/>
@@ -2792,8 +2757,8 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="B4:AW32"/>
   <sheetViews>
-    <sheetView topLeftCell="AB4" workbookViewId="0">
-      <selection activeCell="AK17" sqref="AK17:AN17"/>
+    <sheetView topLeftCell="O4" workbookViewId="0">
+      <selection activeCell="Y16" sqref="Y16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2816,140 +2781,140 @@
   <sheetData>
     <row r="4" spans="2:49" ht="21" x14ac:dyDescent="0.35">
       <c r="B4" s="10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B9" s="169" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="170"/>
-      <c r="D9" s="170"/>
-      <c r="E9" s="170"/>
-      <c r="F9" s="170"/>
-      <c r="G9" s="171"/>
+      <c r="B9" s="167" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="168"/>
+      <c r="D9" s="168"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="168"/>
+      <c r="G9" s="169"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="169" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="170"/>
-      <c r="K9" s="170"/>
-      <c r="L9" s="170"/>
-      <c r="M9" s="170"/>
-      <c r="N9" s="171"/>
-      <c r="P9" s="169" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q9" s="170"/>
-      <c r="R9" s="170"/>
-      <c r="S9" s="170"/>
-      <c r="T9" s="170"/>
-      <c r="U9" s="171"/>
+      <c r="I9" s="167" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="168"/>
+      <c r="K9" s="168"/>
+      <c r="L9" s="168"/>
+      <c r="M9" s="168"/>
+      <c r="N9" s="169"/>
+      <c r="P9" s="167" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q9" s="168"/>
+      <c r="R9" s="168"/>
+      <c r="S9" s="168"/>
+      <c r="T9" s="168"/>
+      <c r="U9" s="169"/>
       <c r="V9" s="20"/>
-      <c r="W9" s="169" t="s">
-        <v>124</v>
-      </c>
-      <c r="X9" s="170"/>
-      <c r="Y9" s="170"/>
-      <c r="Z9" s="170"/>
-      <c r="AA9" s="170"/>
-      <c r="AB9" s="171"/>
-      <c r="AD9" s="169" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE9" s="170"/>
-      <c r="AF9" s="170"/>
-      <c r="AG9" s="170"/>
-      <c r="AH9" s="170"/>
-      <c r="AI9" s="171"/>
-      <c r="AK9" s="169" t="s">
-        <v>126</v>
-      </c>
-      <c r="AL9" s="170"/>
-      <c r="AM9" s="170"/>
-      <c r="AN9" s="170"/>
-      <c r="AO9" s="170"/>
-      <c r="AP9" s="171"/>
+      <c r="W9" s="167" t="s">
+        <v>101</v>
+      </c>
+      <c r="X9" s="168"/>
+      <c r="Y9" s="168"/>
+      <c r="Z9" s="168"/>
+      <c r="AA9" s="168"/>
+      <c r="AB9" s="169"/>
+      <c r="AD9" s="167" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE9" s="168"/>
+      <c r="AF9" s="168"/>
+      <c r="AG9" s="168"/>
+      <c r="AH9" s="168"/>
+      <c r="AI9" s="169"/>
+      <c r="AK9" s="167" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL9" s="168"/>
+      <c r="AM9" s="168"/>
+      <c r="AN9" s="168"/>
+      <c r="AO9" s="168"/>
+      <c r="AP9" s="169"/>
     </row>
     <row r="10" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B10" s="19"/>
       <c r="C10" s="20" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="21"/>
       <c r="H10" s="12"/>
       <c r="I10" s="19"/>
       <c r="J10" s="20" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="K10" s="20" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="L10" s="20" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="M10" s="20"/>
       <c r="N10" s="21"/>
       <c r="P10" s="19"/>
       <c r="Q10" s="20" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="R10" s="20" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="S10" s="20" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="T10" s="20"/>
       <c r="U10" s="21"/>
       <c r="V10" s="20"/>
       <c r="W10" s="19"/>
       <c r="X10" s="20" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="Y10" s="20" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="Z10" s="20" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="AA10" s="20"/>
       <c r="AB10" s="21"/>
       <c r="AD10" s="19"/>
       <c r="AE10" s="20" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="AF10" s="20" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="AG10" s="20" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="AH10" s="20"/>
       <c r="AI10" s="21"/>
       <c r="AK10" s="54"/>
       <c r="AL10" s="161" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="AM10" s="20" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="AN10" s="20" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="AO10" s="20"/>
       <c r="AP10" s="21"/>
     </row>
     <row r="11" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B11" s="22" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="C11" s="50">
         <v>0.01</v>
@@ -2960,7 +2925,7 @@
       <c r="G11" s="21"/>
       <c r="H11" s="12"/>
       <c r="I11" s="22" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="J11" s="72">
         <v>1.0209999999999999</v>
@@ -2970,7 +2935,7 @@
       <c r="M11" s="28"/>
       <c r="N11" s="29"/>
       <c r="P11" s="22" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="Q11" s="73">
         <v>109207.75613582118</v>
@@ -2981,7 +2946,7 @@
       <c r="U11" s="34"/>
       <c r="V11" s="33"/>
       <c r="W11" s="22" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="X11" s="73">
         <v>1052.96</v>
@@ -2991,7 +2956,7 @@
       <c r="AA11" s="20"/>
       <c r="AB11" s="21"/>
       <c r="AD11" s="22" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AE11" s="106">
         <v>0.04</v>
@@ -3001,7 +2966,7 @@
       <c r="AH11" s="39"/>
       <c r="AI11" s="40"/>
       <c r="AK11" s="19" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AL11" s="143">
         <v>10</v>
@@ -3017,7 +2982,7 @@
     </row>
     <row r="12" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B12" s="19" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="C12" s="50">
         <v>0.01</v>
@@ -3028,7 +2993,7 @@
       <c r="G12" s="21"/>
       <c r="H12" s="12"/>
       <c r="I12" s="19" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="J12" s="72">
         <v>1.0209999999999999</v>
@@ -3038,7 +3003,7 @@
       <c r="M12" s="28"/>
       <c r="N12" s="29"/>
       <c r="P12" s="19" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="Q12" s="73">
         <v>10414.925594428809</v>
@@ -3049,7 +3014,7 @@
       <c r="U12" s="34"/>
       <c r="V12" s="33"/>
       <c r="W12" s="19" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="X12" s="73">
         <v>10738.279999999999</v>
@@ -3059,7 +3024,7 @@
       <c r="AA12" s="20"/>
       <c r="AB12" s="21"/>
       <c r="AD12" s="19" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="AE12" s="106">
         <v>0.01</v>
@@ -3077,7 +3042,7 @@
     </row>
     <row r="13" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B13" s="22" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="C13" s="50">
         <v>0.01</v>
@@ -3088,7 +3053,7 @@
       <c r="G13" s="21"/>
       <c r="H13" s="12"/>
       <c r="I13" s="22" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="J13" s="72">
         <v>1.0209999999999999</v>
@@ -3098,7 +3063,7 @@
       <c r="M13" s="28"/>
       <c r="N13" s="29"/>
       <c r="P13" s="22" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="Q13" s="73">
         <v>1017.1115589652804</v>
@@ -3109,7 +3074,7 @@
       <c r="U13" s="34"/>
       <c r="V13" s="33"/>
       <c r="W13" s="22" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="X13" s="73">
         <v>110605.973</v>
@@ -3119,7 +3084,7 @@
       <c r="AA13" s="20"/>
       <c r="AB13" s="21"/>
       <c r="AD13" s="22" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="AE13" s="106">
         <v>0.01</v>
@@ -3144,7 +3109,7 @@
     </row>
     <row r="14" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B14" s="22" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="C14" s="50"/>
       <c r="D14" s="50">
@@ -3155,7 +3120,7 @@
       <c r="G14" s="21"/>
       <c r="H14" s="12"/>
       <c r="I14" s="22" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="J14" s="72"/>
       <c r="K14" s="72">
@@ -3165,7 +3130,7 @@
       <c r="M14" s="28"/>
       <c r="N14" s="29"/>
       <c r="P14" s="22" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="71"/>
       <c r="R14" s="73">
@@ -3176,7 +3141,7 @@
       <c r="U14" s="34"/>
       <c r="V14" s="33"/>
       <c r="W14" s="22" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="X14" s="73"/>
       <c r="Y14" s="73">
@@ -3186,7 +3151,7 @@
       <c r="AA14" s="20"/>
       <c r="AB14" s="21"/>
       <c r="AD14" s="22" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="AE14" s="106"/>
       <c r="AF14" s="119">
@@ -3211,7 +3176,7 @@
     </row>
     <row r="15" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B15" s="19" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="C15" s="50"/>
       <c r="D15" s="50">
@@ -3222,7 +3187,7 @@
       <c r="G15" s="21"/>
       <c r="H15" s="12"/>
       <c r="I15" s="19" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="J15" s="72"/>
       <c r="K15" s="72">
@@ -3232,7 +3197,7 @@
       <c r="M15" s="28"/>
       <c r="N15" s="29"/>
       <c r="P15" s="19" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="R15" s="73">
         <v>10414.925594428809</v>
@@ -3242,7 +3207,7 @@
       <c r="U15" s="34"/>
       <c r="V15" s="33"/>
       <c r="W15" s="19" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="X15" s="51"/>
       <c r="Y15" s="73">
@@ -3252,7 +3217,7 @@
       <c r="AA15" s="33"/>
       <c r="AB15" s="34"/>
       <c r="AD15" s="19" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="AE15" s="28"/>
       <c r="AF15" s="106">
@@ -3261,14 +3226,14 @@
       <c r="AG15" s="39"/>
       <c r="AH15" s="39"/>
       <c r="AI15" s="40"/>
-      <c r="AK15" s="169" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL15" s="170"/>
-      <c r="AM15" s="170"/>
-      <c r="AN15" s="170"/>
-      <c r="AO15" s="170"/>
-      <c r="AP15" s="171"/>
+      <c r="AK15" s="167" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL15" s="168"/>
+      <c r="AM15" s="168"/>
+      <c r="AN15" s="168"/>
+      <c r="AO15" s="168"/>
+      <c r="AP15" s="169"/>
       <c r="AQ15" s="14"/>
       <c r="AR15" s="14"/>
       <c r="AS15" s="28"/>
@@ -3279,7 +3244,7 @@
     </row>
     <row r="16" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B16" s="22" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="C16" s="50"/>
       <c r="D16" s="50">
@@ -3290,7 +3255,7 @@
       <c r="G16" s="21"/>
       <c r="H16" s="12"/>
       <c r="I16" s="22" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="J16" s="72"/>
       <c r="K16" s="72">
@@ -3300,7 +3265,7 @@
       <c r="M16" s="28"/>
       <c r="N16" s="29"/>
       <c r="P16" s="22" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="Q16" s="71"/>
       <c r="R16" s="73">
@@ -3311,7 +3276,7 @@
       <c r="U16" s="34"/>
       <c r="V16" s="33"/>
       <c r="W16" s="22" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="X16" s="51"/>
       <c r="Y16" s="73">
@@ -3321,7 +3286,7 @@
       <c r="AA16" s="33"/>
       <c r="AB16" s="34"/>
       <c r="AD16" s="22" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="AE16" s="28"/>
       <c r="AF16" s="106">
@@ -3332,13 +3297,13 @@
       <c r="AI16" s="40"/>
       <c r="AK16" s="160"/>
       <c r="AL16" s="161" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="AM16" s="20" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="AN16" s="20" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="AO16" s="20"/>
       <c r="AP16" s="21"/>
@@ -3352,7 +3317,7 @@
     </row>
     <row r="17" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B17" s="22" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="50"/>
@@ -3362,7 +3327,7 @@
       <c r="F17" s="14"/>
       <c r="G17" s="23"/>
       <c r="I17" s="22" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="J17" s="72"/>
       <c r="K17" s="72"/>
@@ -3372,7 +3337,7 @@
       <c r="M17" s="15"/>
       <c r="N17" s="30"/>
       <c r="P17" s="22" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="Q17" s="71"/>
       <c r="R17" s="73"/>
@@ -3383,7 +3348,7 @@
       <c r="U17" s="36"/>
       <c r="V17" s="35"/>
       <c r="W17" s="22" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="X17" s="51"/>
       <c r="Y17" s="73"/>
@@ -3393,7 +3358,7 @@
       <c r="AA17" s="35"/>
       <c r="AB17" s="36"/>
       <c r="AD17" s="22" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="AE17" s="28"/>
       <c r="AF17" s="106"/>
@@ -3403,7 +3368,7 @@
       <c r="AH17" s="41"/>
       <c r="AI17" s="42"/>
       <c r="AK17" s="19" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AL17" s="143">
         <v>0.5</v>
@@ -3426,7 +3391,7 @@
     </row>
     <row r="18" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B18" s="19" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="50"/>
@@ -3436,7 +3401,7 @@
       <c r="F18" s="14"/>
       <c r="G18" s="23"/>
       <c r="I18" s="19" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="J18" s="72"/>
       <c r="K18" s="72"/>
@@ -3446,7 +3411,7 @@
       <c r="M18" s="15"/>
       <c r="N18" s="30"/>
       <c r="P18" s="19" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="Q18" s="71"/>
       <c r="R18" s="73"/>
@@ -3457,7 +3422,7 @@
       <c r="U18" s="36"/>
       <c r="V18" s="35"/>
       <c r="W18" s="19" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="X18" s="51"/>
       <c r="Y18" s="73"/>
@@ -3467,7 +3432,7 @@
       <c r="AA18" s="35"/>
       <c r="AB18" s="36"/>
       <c r="AD18" s="19" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="AE18" s="28"/>
       <c r="AF18" s="106"/>
@@ -3492,7 +3457,7 @@
     </row>
     <row r="19" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B19" s="22" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="14"/>
@@ -3502,7 +3467,7 @@
       <c r="F19" s="14"/>
       <c r="G19" s="23"/>
       <c r="I19" s="22" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="J19" s="72"/>
       <c r="K19" s="110"/>
@@ -3512,7 +3477,7 @@
       <c r="M19" s="15"/>
       <c r="N19" s="30"/>
       <c r="P19" s="22" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="Q19" s="33"/>
       <c r="R19" s="39"/>
@@ -3523,7 +3488,7 @@
       <c r="U19" s="36"/>
       <c r="V19" s="35"/>
       <c r="W19" s="22" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="X19" s="20"/>
       <c r="Y19" s="41"/>
@@ -3533,7 +3498,7 @@
       <c r="AA19" s="35"/>
       <c r="AB19" s="36"/>
       <c r="AD19" s="22" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="AE19" s="39"/>
       <c r="AF19" s="64"/>
@@ -4088,8 +4053,8 @@
   <sheetPr codeName="Лист4"/>
   <dimension ref="B1:P50"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4108,19 +4073,19 @@
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" s="54" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C2" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="18" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>8</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="13"/>
@@ -4132,7 +4097,7 @@
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="86" t="s">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="C3" s="39">
         <v>9</v>
@@ -4156,7 +4121,7 @@
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="86" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="C4" s="39">
         <v>25</v>
@@ -4257,51 +4222,53 @@
       <c r="L11" s="11"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="172" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="172"/>
-      <c r="D12" s="172"/>
-      <c r="E12" s="172"/>
-      <c r="F12" s="172"/>
-      <c r="G12" s="172"/>
-      <c r="H12" s="172"/>
-      <c r="I12" s="172"/>
+      <c r="B12" s="173" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="173"/>
+      <c r="D12" s="173"/>
+      <c r="E12" s="173"/>
+      <c r="F12" s="173"/>
+      <c r="G12" s="173"/>
+      <c r="H12" s="173"/>
+      <c r="I12" s="173"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="54" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C13" s="58" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="D13" s="57" t="s">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="E13" s="57" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F13" s="58" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G13" s="58" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H13" s="58" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I13" s="59" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="86" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C14" s="73">
-        <v>555832.94700000004</v>
-      </c>
-      <c r="D14" s="87"/>
+        <v>55532.947</v>
+      </c>
+      <c r="D14" s="183">
+        <v>13545</v>
+      </c>
       <c r="E14" s="87"/>
       <c r="F14" s="51"/>
       <c r="G14" s="51"/>
@@ -4310,12 +4277,14 @@
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="86" t="s">
-        <v>72</v>
+        <v>136</v>
       </c>
       <c r="C15" s="71">
-        <v>382332.283</v>
-      </c>
-      <c r="D15" s="87"/>
+        <v>38233.283000000003</v>
+      </c>
+      <c r="D15" s="183">
+        <v>60000</v>
+      </c>
       <c r="E15" s="87"/>
       <c r="F15" s="51"/>
       <c r="G15" s="51"/>
@@ -4323,12 +4292,8 @@
       <c r="I15" s="88"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="86" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="71">
-        <v>11153.606</v>
-      </c>
+      <c r="B16" s="86"/>
+      <c r="C16" s="71"/>
       <c r="D16" s="87"/>
       <c r="E16" s="87"/>
       <c r="F16" s="51"/>
@@ -4396,51 +4361,53 @@
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="172" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="172"/>
-      <c r="D23" s="172"/>
-      <c r="E23" s="172"/>
-      <c r="F23" s="172"/>
-      <c r="G23" s="172"/>
-      <c r="H23" s="172"/>
-      <c r="I23" s="172"/>
+      <c r="B23" s="173" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="173"/>
+      <c r="D23" s="173"/>
+      <c r="E23" s="173"/>
+      <c r="F23" s="173"/>
+      <c r="G23" s="173"/>
+      <c r="H23" s="173"/>
+      <c r="I23" s="173"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="54" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C24" s="58" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="D24" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" s="59" t="s">
         <v>34</v>
-      </c>
-      <c r="E24" s="57" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="H24" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="I24" s="59" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="86" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C25" s="89">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D25" s="87"/>
+      <c r="D25" s="89">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="E25" s="87"/>
       <c r="F25" s="51"/>
       <c r="G25" s="51"/>
@@ -4449,12 +4416,14 @@
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="86" t="s">
-        <v>72</v>
+        <v>136</v>
       </c>
       <c r="C26" s="89">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D26" s="87"/>
+      <c r="D26" s="89">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="E26" s="87"/>
       <c r="F26" s="51"/>
       <c r="G26" s="51"/>
@@ -4463,12 +4432,14 @@
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="86" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="C27" s="89">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D27" s="87"/>
+      <c r="D27" s="89">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="E27" s="87"/>
       <c r="F27" s="51"/>
       <c r="G27" s="51"/>
@@ -4536,27 +4507,27 @@
       <c r="I33" s="3"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="173" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="173"/>
-      <c r="D34" s="173"/>
-      <c r="E34" s="173"/>
-      <c r="F34" s="173"/>
-      <c r="G34" s="173"/>
-      <c r="H34" s="173"/>
-      <c r="I34" s="173"/>
+      <c r="B34" s="174" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="174"/>
+      <c r="D34" s="174"/>
+      <c r="E34" s="174"/>
+      <c r="F34" s="174"/>
+      <c r="G34" s="174"/>
+      <c r="H34" s="174"/>
+      <c r="I34" s="174"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="54"/>
       <c r="C35" s="74" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="13"/>
@@ -4568,7 +4539,7 @@
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="61" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C36" s="28">
         <v>13.260400000000001</v>
@@ -4585,7 +4556,7 @@
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="61" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C37" s="28">
         <v>13.721</v>
@@ -4602,7 +4573,7 @@
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="62" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C38" s="31">
         <v>13.7593</v>
@@ -4618,45 +4589,45 @@
       <c r="I38" s="3"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="172" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" s="172"/>
-      <c r="D40" s="172"/>
-      <c r="E40" s="172"/>
-      <c r="F40" s="172"/>
-      <c r="G40" s="172"/>
-      <c r="H40" s="172"/>
-      <c r="I40" s="172"/>
+      <c r="B40" s="173" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="173"/>
+      <c r="D40" s="173"/>
+      <c r="E40" s="173"/>
+      <c r="F40" s="173"/>
+      <c r="G40" s="173"/>
+      <c r="H40" s="173"/>
+      <c r="I40" s="173"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="16"/>
       <c r="C41" s="58" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="D41" s="57" t="s">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="E41" s="57" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F41" s="58" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G41" s="58" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H41" s="58"/>
       <c r="I41" s="58" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J41" s="59" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="61" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C42" s="73">
         <v>200.613</v>
@@ -4671,7 +4642,7 @@
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="61" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C43" s="39">
         <v>256.05900000000003</v>
@@ -4686,7 +4657,7 @@
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="62" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C44" s="43">
         <v>291.61500000000001</v>
@@ -4700,45 +4671,45 @@
       <c r="J44" s="60"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="172" t="s">
-        <v>30</v>
-      </c>
-      <c r="C46" s="172"/>
-      <c r="D46" s="172"/>
-      <c r="E46" s="172"/>
-      <c r="F46" s="172"/>
-      <c r="G46" s="172"/>
-      <c r="H46" s="172"/>
-      <c r="I46" s="172"/>
+      <c r="B46" s="173" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="173"/>
+      <c r="D46" s="173"/>
+      <c r="E46" s="173"/>
+      <c r="F46" s="173"/>
+      <c r="G46" s="173"/>
+      <c r="H46" s="173"/>
+      <c r="I46" s="173"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="84"/>
       <c r="C47" s="58" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="D47" s="57" t="s">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="E47" s="57" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F47" s="58" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G47" s="58" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H47" s="58"/>
       <c r="I47" s="58" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J47" s="59" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="61" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C48" s="72">
         <f>2.18/100</f>
@@ -4754,7 +4725,7 @@
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" s="61" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C49" s="28">
         <f>3.643/100</f>
@@ -4770,7 +4741,7 @@
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" s="62" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C50" s="31">
         <f>1.699/100</f>
@@ -4801,8 +4772,8 @@
   <sheetPr codeName="Лист5"/>
   <dimension ref="C1:L48"/>
   <sheetViews>
-    <sheetView topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41:C42"/>
+    <sheetView topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4819,63 +4790,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="174" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="I1" s="174" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="174"/>
-      <c r="K1" s="174"/>
-      <c r="L1" s="174"/>
+      <c r="C1" s="175" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="I1" s="175" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="175"/>
+      <c r="K1" s="175"/>
+      <c r="L1" s="175"/>
     </row>
     <row r="2" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="I2" s="174"/>
-      <c r="J2" s="174"/>
-      <c r="K2" s="174"/>
-      <c r="L2" s="174"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="175"/>
+      <c r="I2" s="175"/>
+      <c r="J2" s="175"/>
+      <c r="K2" s="175"/>
+      <c r="L2" s="175"/>
     </row>
     <row r="3" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C3" s="172" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="172"/>
-      <c r="E3" s="172"/>
-      <c r="F3" s="172"/>
-      <c r="I3" s="172" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="172"/>
-      <c r="K3" s="172"/>
-      <c r="L3" s="172"/>
+      <c r="C3" s="173" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="173"/>
+      <c r="E3" s="173"/>
+      <c r="F3" s="173"/>
+      <c r="I3" s="173" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="173"/>
+      <c r="K3" s="173"/>
+      <c r="L3" s="173"/>
     </row>
     <row r="4" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C4" s="69"/>
       <c r="D4" s="69" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="E4" s="69" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="F4" s="92" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="I4" s="69"/>
       <c r="J4" s="101" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="K4" s="101" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="L4" s="101" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="3:12" x14ac:dyDescent="0.25">
@@ -4892,7 +4863,7 @@
         <v>56247.010500000004</v>
       </c>
       <c r="I5" s="67" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="J5" s="70">
         <v>200</v>
@@ -4918,7 +4889,7 @@
         <v>13068.2835</v>
       </c>
       <c r="I6" s="67" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="J6" s="70">
         <v>200</v>
@@ -4981,39 +4952,39 @@
       <c r="E14" s="12"/>
     </row>
     <row r="15" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C15" s="172" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="172"/>
-      <c r="E15" s="172"/>
-      <c r="F15" s="172"/>
-      <c r="I15" s="172" t="s">
-        <v>21</v>
-      </c>
-      <c r="J15" s="172"/>
-      <c r="K15" s="172"/>
-      <c r="L15" s="172"/>
+      <c r="C15" s="173" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="173"/>
+      <c r="E15" s="173"/>
+      <c r="F15" s="173"/>
+      <c r="I15" s="173" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="173"/>
+      <c r="K15" s="173"/>
+      <c r="L15" s="173"/>
     </row>
     <row r="16" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C16" s="69"/>
       <c r="D16" s="69" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="E16" s="69" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="F16" s="92" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="I16" s="69"/>
       <c r="J16" s="101" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="K16" s="101" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="L16" s="101" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.25">
@@ -5030,7 +5001,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="67" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="J17" s="53">
         <v>1</v>
@@ -5056,7 +5027,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="67" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="J18" s="53">
         <v>1</v>
@@ -5119,39 +5090,39 @@
       <c r="E26" s="12"/>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C27" s="172" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="172"/>
-      <c r="E27" s="172"/>
-      <c r="F27" s="172"/>
-      <c r="I27" s="172" t="s">
-        <v>22</v>
-      </c>
-      <c r="J27" s="172"/>
-      <c r="K27" s="172"/>
-      <c r="L27" s="172"/>
+      <c r="C27" s="173" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="173"/>
+      <c r="E27" s="173"/>
+      <c r="F27" s="173"/>
+      <c r="I27" s="173" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" s="173"/>
+      <c r="K27" s="173"/>
+      <c r="L27" s="173"/>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C28" s="69"/>
       <c r="D28" s="69" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="E28" s="69" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="F28" s="92" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="I28" s="69"/>
       <c r="J28" s="101" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="K28" s="101" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="L28" s="101" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.25">
@@ -5168,7 +5139,7 @@
         <v>1</v>
       </c>
       <c r="I29" s="67" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="J29" s="53">
         <v>1</v>
@@ -5194,7 +5165,7 @@
         <v>1</v>
       </c>
       <c r="I30" s="67" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="J30" s="53">
         <v>1</v>
@@ -5247,39 +5218,39 @@
       <c r="F36" s="68"/>
     </row>
     <row r="39" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C39" s="172" t="s">
-        <v>46</v>
-      </c>
-      <c r="D39" s="172"/>
-      <c r="E39" s="172"/>
-      <c r="F39" s="172"/>
-      <c r="I39" s="172" t="s">
-        <v>46</v>
-      </c>
-      <c r="J39" s="172"/>
-      <c r="K39" s="172"/>
-      <c r="L39" s="172"/>
+      <c r="C39" s="173" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="173"/>
+      <c r="E39" s="173"/>
+      <c r="F39" s="173"/>
+      <c r="I39" s="173" t="s">
+        <v>38</v>
+      </c>
+      <c r="J39" s="173"/>
+      <c r="K39" s="173"/>
+      <c r="L39" s="173"/>
     </row>
     <row r="40" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C40" s="93"/>
       <c r="D40" s="93" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="E40" s="93" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="F40" s="93" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="I40" s="93"/>
       <c r="J40" s="101" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="K40" s="101" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="L40" s="101" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="3:12" x14ac:dyDescent="0.25">
@@ -5296,7 +5267,7 @@
         <v>0.01</v>
       </c>
       <c r="I41" s="67" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="J41" s="52">
         <v>0.1</v>
@@ -5322,7 +5293,7 @@
         <v>0.01</v>
       </c>
       <c r="I42" s="67" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="J42" s="52">
         <v>0.1</v>
@@ -5377,16 +5348,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="I39:L39"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C1:F2"/>
     <mergeCell ref="I1:L2"/>
     <mergeCell ref="I3:L3"/>
     <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="I39:L39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -5397,37 +5368,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="178" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="179"/>
-      <c r="D2" s="180"/>
+      <c r="B2" s="179" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="180"/>
+      <c r="D2" s="181"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="175" t="s">
-        <v>144</v>
-      </c>
-      <c r="C3" s="176"/>
-      <c r="D3" s="177"/>
-      <c r="F3" s="173" t="s">
-        <v>97</v>
-      </c>
-      <c r="G3" s="173"/>
-      <c r="H3" s="173"/>
-      <c r="I3" s="173"/>
-      <c r="J3" s="173"/>
-      <c r="K3" s="173"/>
+      <c r="B3" s="176" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="177"/>
+      <c r="D3" s="178"/>
+      <c r="F3" s="174" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="174"/>
+      <c r="H3" s="174"/>
+      <c r="I3" s="174"/>
+      <c r="J3" s="174"/>
+      <c r="K3" s="174"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="111"/>
@@ -5436,26 +5408,55 @@
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="111" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="113" t="s">
-        <v>146</v>
+        <v>117</v>
+      </c>
+      <c r="H5" t="s">
+        <v>118</v>
+      </c>
+      <c r="I5" t="s">
+        <v>119</v>
+      </c>
+      <c r="J5" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="111"/>
       <c r="C6" s="14"/>
       <c r="D6" s="113"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118"/>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="182">
+        <v>5</v>
+      </c>
+      <c r="I6" s="182">
+        <v>10.223535037611263</v>
+      </c>
+      <c r="J6" s="118">
+        <v>5.2599422784146093</v>
+      </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="111"/>
       <c r="C7" s="14"/>
       <c r="D7" s="113"/>
-      <c r="I7" s="117"/>
-      <c r="J7" s="8"/>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="182">
+        <v>11</v>
+      </c>
+      <c r="I7" s="182">
+        <v>0.80148993768055821</v>
+      </c>
+      <c r="J7" s="8">
+        <v>5.6240999363541633</v>
+      </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="111"/>
@@ -5468,14 +5469,47 @@
       <c r="B9" s="111"/>
       <c r="C9" s="14"/>
       <c r="D9" s="113"/>
+      <c r="H9" t="s">
+        <v>118</v>
+      </c>
+      <c r="I9" t="s">
+        <v>122</v>
+      </c>
+      <c r="J9" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="112"/>
       <c r="C10" s="114"/>
       <c r="D10" s="115"/>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>0.51487868472585696</v>
+      </c>
+      <c r="J10">
+        <v>6.1297277138170685</v>
+      </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E11" s="116"/>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>11</v>
+      </c>
+      <c r="I11">
+        <v>9.5686028773890186</v>
+      </c>
+      <c r="J11">
+        <v>5.6826433087797295</v>
+      </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D12" s="117"/>
